--- a/EventosCOVIDMunicipiosUFs.xlsx
+++ b/EventosCOVIDMunicipiosUFs.xlsx
@@ -6,11 +6,11 @@
     <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_CEB0EB26_72CD_43AF_9E05_C2097E053725_.wvu.FilterData">'Página1'!$B$1:$Z$871</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_31E2AF42_50C2_41BC_ADDD_7BAC8E43236F_.wvu.FilterData">'Página1'!$B$1:$Z$871</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{CEB0EB26-72CD-43AF-9E05-C2097E053725}" name="Filto"/>
+    <customWorkbookView activeSheetId="0" maximized="1" tabRatio="600" windowHeight="0" windowWidth="0" guid="{31E2AF42-50C2-41BC-ADDD-7BAC8E43236F}" name="Filto"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -22847,7 +22847,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{CEB0EB26-72CD-43AF-9E05-C2097E053725}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{31E2AF42-50C2-41BC-ADDD-7BAC8E43236F}" filter="1" showAutoFilter="1">
       <autoFilter ref="$B$1:$Z$871"/>
     </customSheetView>
   </customSheetViews>
